--- a/ArticleManage/main_working_folder/output_folders/Data 57 CO2 adsorption and desorption/Data57_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 57 CO2 adsorption and desorption/Data57_all_graphs_excel.xlsx
@@ -5,11 +5,11 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="AC-1000" sheetId="1" r:id="rId1"/>
-    <sheet name="AC-600" sheetId="2" r:id="rId4"/>
-    <sheet name="AC-700" sheetId="3" r:id="rId5"/>
-    <sheet name="AC-800" sheetId="4" r:id="rId6"/>
-    <sheet name="AC-900" sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2 AC-1000  0-1-0-350 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 AC-600  0-1-0-350 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 AC-700  0-1-0-350 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2 AC-800  0-1-0-350 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2 AC-900  0-1-0-350 " sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -113,7 +113,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC-1000</a:t>
+              <a:t>Izoterma adsorpcji probki AC-1000 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -172,12 +172,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'AC-1000'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 AC-1000  0-1-0-350 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AC-1000'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 AC-1000  0-1-0-350 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -190,6 +190,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -259,6 +261,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="350"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -423,7 +427,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC-600</a:t>
+              <a:t>Izoterma adsorpcji probki AC-600 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -482,12 +486,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'AC-600'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 AC-600  0-1-0-350 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AC-600'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 AC-600  0-1-0-350 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -500,6 +504,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -569,6 +575,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="350"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -733,7 +741,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC-700</a:t>
+              <a:t>Izoterma adsorpcji probki AC-700 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -792,12 +800,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'AC-700'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 AC-700  0-1-0-350 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AC-700'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 AC-700  0-1-0-350 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -810,6 +818,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -879,6 +889,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="350"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1043,7 +1055,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC-800</a:t>
+              <a:t>Izoterma adsorpcji probki AC-800 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1102,12 +1114,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'AC-800'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 AC-800  0-1-0-350 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AC-800'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 AC-800  0-1-0-350 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1120,6 +1132,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1189,6 +1203,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="350"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1353,7 +1369,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC-900</a:t>
+              <a:t>Izoterma adsorpcji probki AC-900 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1412,12 +1428,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'AC-900'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 AC-900  0-1-0-350 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AC-900'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 AC-900  0-1-0-350 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1430,6 +1446,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1499,6 +1517,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="350"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4928,314 +4948,314 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0013</v>
+        <v>-0.0085</v>
       </c>
       <c r="B3" s="0">
-        <v>127.9981</v>
+        <v>127.9126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0013</v>
+        <v>-0.0076</v>
       </c>
       <c r="B4" s="0">
-        <v>68.4796</v>
+        <v>68.3712</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0005</v>
+        <v>-0.0031</v>
       </c>
       <c r="B5" s="0">
-        <v>5.1411</v>
+        <v>5.0083</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0093</v>
+        <v>-0.0013</v>
       </c>
       <c r="B6" s="0">
-        <v>143.558</v>
+        <v>143.4785</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0255</v>
+        <v>0.0142</v>
       </c>
       <c r="B7" s="0">
-        <v>155.3227</v>
+        <v>155.2477</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0445</v>
+        <v>0.0328</v>
       </c>
       <c r="B8" s="0">
-        <v>161.9144</v>
+        <v>161.842</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0635</v>
+        <v>0.0515</v>
       </c>
       <c r="B9" s="0">
-        <v>167.3902</v>
+        <v>167.3199</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0825</v>
+        <v>0.0703</v>
       </c>
       <c r="B10" s="0">
-        <v>171.1129</v>
+        <v>171.044</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1015</v>
+        <v>0.0892</v>
       </c>
       <c r="B11" s="0">
-        <v>173.4572</v>
+        <v>173.3892</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1275</v>
+        <v>0.1149</v>
       </c>
       <c r="B12" s="0">
-        <v>176.3436</v>
+        <v>176.2767</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1534</v>
+        <v>0.1407</v>
       </c>
       <c r="B13" s="0">
-        <v>178.5606</v>
+        <v>178.4946</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1737</v>
+        <v>0.1609</v>
       </c>
       <c r="B14" s="0">
-        <v>179.5832</v>
+        <v>179.5176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.1919</v>
+        <v>0.1791</v>
       </c>
       <c r="B15" s="0">
-        <v>180.8407</v>
+        <v>180.7755</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2095</v>
+        <v>0.1966</v>
       </c>
       <c r="B16" s="0">
-        <v>182.2</v>
+        <v>182.1354</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2295</v>
+        <v>0.2165</v>
       </c>
       <c r="B17" s="0">
-        <v>183.0651</v>
+        <v>183.0008</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2492</v>
+        <v>0.2362</v>
       </c>
       <c r="B18" s="0">
-        <v>183.3419</v>
+        <v>183.2777</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.27</v>
+        <v>0.2568</v>
       </c>
       <c r="B19" s="0">
-        <v>185.2586</v>
+        <v>185.1952</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2872</v>
+        <v>0.274</v>
       </c>
       <c r="B20" s="0">
-        <v>185.8576</v>
+        <v>185.7944</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3021</v>
+        <v>0.2889</v>
       </c>
       <c r="B21" s="0">
-        <v>185.7344</v>
+        <v>185.6711</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3246</v>
+        <v>0.3113</v>
       </c>
       <c r="B22" s="0">
-        <v>186.905</v>
+        <v>186.8422</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.3479</v>
+        <v>0.3346</v>
       </c>
       <c r="B23" s="0">
-        <v>187.7667</v>
+        <v>187.7042</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3747</v>
+        <v>0.3613</v>
       </c>
       <c r="B24" s="0">
-        <v>188.4381</v>
+        <v>188.3758</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.3998</v>
+        <v>0.3863</v>
       </c>
       <c r="B25" s="0">
-        <v>189.5645</v>
+        <v>189.5027</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.449</v>
+        <v>0.4354</v>
       </c>
       <c r="B26" s="0">
-        <v>191.5427</v>
+        <v>191.4816</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.4983</v>
+        <v>0.4847</v>
       </c>
       <c r="B27" s="0">
-        <v>191.8108</v>
+        <v>191.7499</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.5476</v>
+        <v>0.5338</v>
       </c>
       <c r="B28" s="0">
-        <v>193.1959</v>
+        <v>193.1355</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.5986</v>
+        <v>0.5847</v>
       </c>
       <c r="B29" s="0">
-        <v>194.5704</v>
+        <v>194.5105</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6478</v>
+        <v>0.6339</v>
       </c>
       <c r="B30" s="0">
-        <v>195.7334</v>
+        <v>195.674</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6963</v>
+        <v>0.6822</v>
       </c>
       <c r="B31" s="0">
-        <v>196.8133</v>
+        <v>196.7543</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.7479</v>
+        <v>0.7338</v>
       </c>
       <c r="B32" s="0">
-        <v>199.1062</v>
+        <v>199.048</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.7968</v>
+        <v>0.7825</v>
       </c>
       <c r="B33" s="0">
-        <v>200.9776</v>
+        <v>200.9202</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.8484</v>
+        <v>0.834</v>
       </c>
       <c r="B34" s="0">
-        <v>202.6234</v>
+        <v>202.5666</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.8743</v>
+        <v>0.8598</v>
       </c>
       <c r="B35" s="0">
-        <v>203.7688</v>
+        <v>203.7125</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.8985</v>
+        <v>0.8839</v>
       </c>
       <c r="B36" s="0">
-        <v>205.4076</v>
+        <v>205.3519</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.9184</v>
+        <v>0.9037</v>
       </c>
       <c r="B37" s="0">
-        <v>206.8812</v>
+        <v>206.8261</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.9392</v>
+        <v>0.9243</v>
       </c>
       <c r="B38" s="0">
-        <v>208.976</v>
+        <v>208.9217</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.959</v>
+        <v>0.944</v>
       </c>
       <c r="B39" s="0">
-        <v>212.6161</v>
+        <v>212.5632</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.9815</v>
+        <v>0.9663</v>
       </c>
       <c r="B40" s="0">
-        <v>215.0722</v>
+        <v>215.0203</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.9962</v>
+        <v>0.9809</v>
       </c>
       <c r="B41" s="0">
-        <v>217.4079</v>
+        <v>217.3568</v>
       </c>
     </row>
     <row r="42"/>
@@ -5268,298 +5288,298 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.002</v>
+        <v>-0.0075</v>
       </c>
       <c r="B3" s="0">
-        <v>54.5822</v>
+        <v>54.4684</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0</v>
+        <v>-0.0065</v>
       </c>
       <c r="B4" s="0">
-        <v>72.372</v>
+        <v>72.265</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0088</v>
+        <v>0.0015</v>
       </c>
       <c r="B5" s="0">
-        <v>85.31</v>
+        <v>85.208</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0206</v>
+        <v>0.0128</v>
       </c>
       <c r="B6" s="0">
-        <v>93.9353</v>
+        <v>93.8367</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0333</v>
+        <v>0.0254</v>
       </c>
       <c r="B7" s="0">
-        <v>96.0916</v>
+        <v>95.9938</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.046</v>
+        <v>0.038</v>
       </c>
       <c r="B8" s="0">
-        <v>98.7871</v>
+        <v>98.6903</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0686</v>
+        <v>0.0604</v>
       </c>
       <c r="B9" s="0">
-        <v>100.9434</v>
+        <v>100.8475</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0891</v>
+        <v>0.0809</v>
       </c>
       <c r="B10" s="0">
-        <v>102.0216</v>
+        <v>101.926</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0979</v>
+        <v>0.0897</v>
       </c>
       <c r="B11" s="0">
-        <v>102.0216</v>
+        <v>101.926</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1273</v>
+        <v>0.1189</v>
       </c>
       <c r="B12" s="0">
-        <v>103.6388</v>
+        <v>103.5439</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1508</v>
+        <v>0.1424</v>
       </c>
       <c r="B13" s="0">
-        <v>104.717</v>
+        <v>104.6225</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1763</v>
+        <v>0.1678</v>
       </c>
       <c r="B14" s="0">
-        <v>105.2561</v>
+        <v>105.1618</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2008</v>
+        <v>0.1923</v>
       </c>
       <c r="B15" s="0">
-        <v>105.2561</v>
+        <v>105.1618</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2243</v>
+        <v>0.2157</v>
       </c>
       <c r="B16" s="0">
-        <v>106.3342</v>
+        <v>106.2404</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2498</v>
+        <v>0.2412</v>
       </c>
       <c r="B17" s="0">
-        <v>105.7951</v>
+        <v>105.7011</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2742</v>
+        <v>0.2656</v>
       </c>
       <c r="B18" s="0">
-        <v>106.3342</v>
+        <v>106.2404</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2997</v>
+        <v>0.2911</v>
       </c>
       <c r="B19" s="0">
-        <v>106.8733</v>
+        <v>106.7797</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3242</v>
+        <v>0.3155</v>
       </c>
       <c r="B20" s="0">
-        <v>107.4124</v>
+        <v>107.319</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3506</v>
+        <v>0.3419</v>
       </c>
       <c r="B21" s="0">
-        <v>107.4124</v>
+        <v>107.319</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3732</v>
+        <v>0.3644</v>
       </c>
       <c r="B22" s="0">
-        <v>107.9515</v>
+        <v>107.8582</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.3986</v>
+        <v>0.3898</v>
       </c>
       <c r="B23" s="0">
-        <v>108.4906</v>
+        <v>108.3975</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.4486</v>
+        <v>0.4398</v>
       </c>
       <c r="B24" s="0">
-        <v>107.9515</v>
+        <v>107.8582</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.4985</v>
+        <v>0.4897</v>
       </c>
       <c r="B25" s="0">
-        <v>108.4906</v>
+        <v>108.3975</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5475</v>
+        <v>0.5386</v>
       </c>
       <c r="B26" s="0">
-        <v>109.0296</v>
+        <v>108.9368</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5975</v>
+        <v>0.5885</v>
       </c>
       <c r="B27" s="0">
-        <v>109.0296</v>
+        <v>108.9368</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.6474</v>
+        <v>0.6385</v>
       </c>
       <c r="B28" s="0">
-        <v>108.4906</v>
+        <v>108.3975</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.6983</v>
+        <v>0.6893</v>
       </c>
       <c r="B29" s="0">
-        <v>109.5687</v>
+        <v>109.4761</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.7473</v>
+        <v>0.7383</v>
       </c>
       <c r="B30" s="0">
-        <v>109.0296</v>
+        <v>108.9368</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.7973</v>
+        <v>0.7882</v>
       </c>
       <c r="B31" s="0">
-        <v>109.5687</v>
+        <v>109.4761</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.8472</v>
+        <v>0.8381</v>
       </c>
       <c r="B32" s="0">
-        <v>110.1078</v>
+        <v>110.0154</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.8746</v>
+        <v>0.8655</v>
       </c>
       <c r="B33" s="0">
-        <v>110.6469</v>
+        <v>110.5547</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.8991</v>
+        <v>0.89</v>
       </c>
       <c r="B34" s="0">
-        <v>110.6469</v>
+        <v>110.5547</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.9187</v>
+        <v>0.9095</v>
       </c>
       <c r="B35" s="0">
-        <v>111.186</v>
+        <v>111.094</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.9373</v>
+        <v>0.9281</v>
       </c>
       <c r="B36" s="0">
-        <v>111.7251</v>
+        <v>111.6333</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.9569</v>
+        <v>0.9476</v>
       </c>
       <c r="B37" s="0">
-        <v>111.7251</v>
+        <v>111.6333</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.9794</v>
+        <v>0.9701</v>
       </c>
       <c r="B38" s="0">
-        <v>112.8032</v>
+        <v>112.7119</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.9873</v>
+        <v>0.9779</v>
       </c>
       <c r="B39" s="0">
-        <v>113.8814</v>
+        <v>113.7904</v>
       </c>
     </row>
     <row r="40"/>
@@ -5592,266 +5612,266 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0013</v>
+        <v>-0.0074</v>
       </c>
       <c r="B3" s="0">
-        <v>63.4924</v>
+        <v>63.382</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0262</v>
+        <v>0.0152</v>
       </c>
       <c r="B4" s="0">
-        <v>150.2169</v>
+        <v>150.1399</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0471</v>
+        <v>0.0355</v>
       </c>
       <c r="B5" s="0">
-        <v>159.8383</v>
+        <v>159.765</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0753</v>
+        <v>0.063</v>
       </c>
       <c r="B6" s="0">
-        <v>172.2086</v>
+        <v>172.1401</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0933</v>
+        <v>0.0807</v>
       </c>
       <c r="B7" s="0">
-        <v>176.9664</v>
+        <v>176.8998</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1167</v>
+        <v>0.1039</v>
       </c>
       <c r="B8" s="0">
-        <v>180.059</v>
+        <v>179.9936</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1275</v>
+        <v>0.1146</v>
       </c>
       <c r="B9" s="0">
-        <v>181.9146</v>
+        <v>181.8498</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1517</v>
+        <v>0.1386</v>
       </c>
       <c r="B10" s="0">
-        <v>184.4556</v>
+        <v>184.3918</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1776</v>
+        <v>0.1644</v>
       </c>
       <c r="B11" s="0">
-        <v>187.8037</v>
+        <v>187.7412</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2027</v>
+        <v>0.1893</v>
       </c>
       <c r="B12" s="0">
-        <v>189.4557</v>
+        <v>189.3939</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2277</v>
+        <v>0.2142</v>
       </c>
       <c r="B13" s="0">
-        <v>192.0329</v>
+        <v>191.972</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2519</v>
+        <v>0.2384</v>
       </c>
       <c r="B14" s="0">
-        <v>193.0902</v>
+        <v>193.0297</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2761</v>
+        <v>0.2624</v>
       </c>
       <c r="B15" s="0">
-        <v>195.3633</v>
+        <v>195.3038</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2995</v>
+        <v>0.2857</v>
       </c>
       <c r="B16" s="0">
-        <v>196.6638</v>
+        <v>196.6047</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3254</v>
+        <v>0.3115</v>
       </c>
       <c r="B17" s="0">
-        <v>197.7819</v>
+        <v>197.7233</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3496</v>
+        <v>0.3357</v>
       </c>
       <c r="B18" s="0">
-        <v>198.9119</v>
+        <v>198.8537</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3738</v>
+        <v>0.3598</v>
       </c>
       <c r="B19" s="0">
-        <v>199.6256</v>
+        <v>199.5676</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3989</v>
+        <v>0.3849</v>
       </c>
       <c r="B20" s="0">
-        <v>199.6454</v>
+        <v>199.5875</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4473</v>
+        <v>0.4331</v>
       </c>
       <c r="B21" s="0">
-        <v>201.4428</v>
+        <v>201.3855</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4957</v>
+        <v>0.4814</v>
       </c>
       <c r="B22" s="0">
-        <v>203.8141</v>
+        <v>203.7578</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.5441</v>
+        <v>0.5297</v>
       </c>
       <c r="B23" s="0">
-        <v>204.3715</v>
+        <v>204.3154</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5943</v>
+        <v>0.5798</v>
       </c>
       <c r="B24" s="0">
-        <v>205.9891</v>
+        <v>205.9337</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.6453</v>
+        <v>0.6306</v>
       </c>
       <c r="B25" s="0">
-        <v>207.813</v>
+        <v>207.7582</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.6954</v>
+        <v>0.6807</v>
       </c>
       <c r="B26" s="0">
-        <v>209.3196</v>
+        <v>209.2654</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.7455</v>
+        <v>0.7307</v>
       </c>
       <c r="B27" s="0">
-        <v>210.747</v>
+        <v>210.6933</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.7957</v>
+        <v>0.7807</v>
       </c>
       <c r="B28" s="0">
-        <v>212.4122</v>
+        <v>212.3592</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.8441</v>
+        <v>0.8291</v>
       </c>
       <c r="B29" s="0">
-        <v>213.0466</v>
+        <v>212.9938</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.8761</v>
+        <v>0.861</v>
       </c>
       <c r="B30" s="0">
-        <v>213.5065</v>
+        <v>213.4539</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.8951</v>
+        <v>0.88</v>
       </c>
       <c r="B31" s="0">
-        <v>213.8395</v>
+        <v>213.7871</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.9274</v>
+        <v>0.9123</v>
       </c>
       <c r="B32" s="0">
-        <v>213.8395</v>
+        <v>213.7871</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.9472</v>
+        <v>0.932</v>
       </c>
       <c r="B33" s="0">
-        <v>214.4173</v>
+        <v>214.365</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.9645</v>
+        <v>0.9492</v>
       </c>
       <c r="B34" s="0">
-        <v>215.9126</v>
+        <v>215.8609</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.9832</v>
+        <v>0.9677</v>
       </c>
       <c r="B35" s="0">
-        <v>220.897</v>
+        <v>220.8472</v>
       </c>
     </row>
     <row r="36"/>
@@ -5884,298 +5904,298 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0029</v>
+        <v>-0.0113</v>
       </c>
       <c r="B3" s="0">
-        <v>103.4241</v>
+        <v>103.3291</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0013</v>
+        <v>-0.0131</v>
       </c>
       <c r="B4" s="0">
-        <v>162.9309</v>
+        <v>162.8588</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0074</v>
+        <v>-0.0168</v>
       </c>
       <c r="B5" s="0">
-        <v>122.2515</v>
+        <v>122.1638</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019</v>
+        <v>-0.0091</v>
       </c>
       <c r="B6" s="0">
-        <v>83.396</v>
+        <v>83.2933</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0013</v>
+        <v>-0.0061</v>
       </c>
       <c r="B7" s="0">
-        <v>41.4875</v>
+        <v>41.3686</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0626</v>
+        <v>0.0459</v>
       </c>
       <c r="B8" s="0">
-        <v>249.999</v>
+        <v>249.9605</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.081</v>
+        <v>0.0639</v>
       </c>
       <c r="B9" s="0">
-        <v>256.1577</v>
+        <v>256.1216</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0998</v>
+        <v>0.0825</v>
       </c>
       <c r="B10" s="0">
-        <v>259.9904</v>
+        <v>259.9557</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1136</v>
+        <v>0.0962</v>
       </c>
       <c r="B11" s="0">
-        <v>262.1314</v>
+        <v>262.0976</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.137</v>
+        <v>0.1191</v>
       </c>
       <c r="B12" s="0">
-        <v>268.5941</v>
+        <v>268.5628</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1793</v>
+        <v>0.1609</v>
       </c>
       <c r="B13" s="0">
-        <v>277.5679</v>
+        <v>277.54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2295</v>
+        <v>0.2106</v>
       </c>
       <c r="B14" s="0">
-        <v>284.8632</v>
+        <v>284.8381</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2558</v>
+        <v>0.2369</v>
       </c>
       <c r="B15" s="0">
-        <v>287.2289</v>
+        <v>287.2047</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.277</v>
+        <v>0.2578</v>
       </c>
       <c r="B16" s="0">
-        <v>290.5594</v>
+        <v>290.5365</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3021</v>
+        <v>0.2828</v>
       </c>
       <c r="B17" s="0">
-        <v>292.2643</v>
+        <v>292.242</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.322</v>
+        <v>0.3025</v>
       </c>
       <c r="B18" s="0">
-        <v>295.4362</v>
+        <v>295.4151</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.341</v>
+        <v>0.3214</v>
       </c>
       <c r="B19" s="0">
-        <v>296.4472</v>
+        <v>296.4266</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3764</v>
+        <v>0.3566</v>
       </c>
       <c r="B20" s="0">
-        <v>300.126</v>
+        <v>300.1068</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4179</v>
+        <v>0.3979</v>
       </c>
       <c r="B21" s="0">
-        <v>303.3659</v>
+        <v>303.3479</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4568</v>
+        <v>0.4366</v>
       </c>
       <c r="B22" s="0">
-        <v>306.9025</v>
+        <v>306.8859</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.494</v>
+        <v>0.4735</v>
       </c>
       <c r="B23" s="0">
-        <v>310.4709</v>
+        <v>310.4557</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5398</v>
+        <v>0.5192</v>
       </c>
       <c r="B24" s="0">
-        <v>313.1194</v>
+        <v>313.1052</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.5796</v>
+        <v>0.5588</v>
       </c>
       <c r="B25" s="0">
-        <v>315.3595</v>
+        <v>315.3462</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.6176</v>
+        <v>0.5968</v>
       </c>
       <c r="B26" s="0">
-        <v>316.3387</v>
+        <v>316.3258</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.6582</v>
+        <v>0.6372</v>
       </c>
       <c r="B27" s="0">
-        <v>318.9609</v>
+        <v>318.949</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.698</v>
+        <v>0.6769</v>
       </c>
       <c r="B28" s="0">
-        <v>320.9698</v>
+        <v>320.9586</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.7377</v>
+        <v>0.7165</v>
       </c>
       <c r="B29" s="0">
-        <v>322.6086</v>
+        <v>322.5981</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.7784</v>
+        <v>0.757</v>
       </c>
       <c r="B30" s="0">
-        <v>324.1258</v>
+        <v>324.1159</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.8173</v>
+        <v>0.7958</v>
       </c>
       <c r="B31" s="0">
-        <v>325.6219</v>
+        <v>325.6125</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.857</v>
+        <v>0.8355</v>
       </c>
       <c r="B32" s="0">
-        <v>326.4677</v>
+        <v>326.4587</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.8899</v>
+        <v>0.8683</v>
       </c>
       <c r="B33" s="0">
-        <v>327.3568</v>
+        <v>327.3481</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.9089</v>
+        <v>0.8873</v>
       </c>
       <c r="B34" s="0">
-        <v>327.7893</v>
+        <v>327.7808</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.9279</v>
+        <v>0.9063</v>
       </c>
       <c r="B35" s="0">
-        <v>328.3084</v>
+        <v>328.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.9469</v>
+        <v>0.9252</v>
       </c>
       <c r="B36" s="0">
-        <v>328.9572</v>
+        <v>328.9491</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.966</v>
+        <v>0.9442</v>
       </c>
       <c r="B37" s="0">
-        <v>329.779</v>
+        <v>329.7712</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.985</v>
+        <v>0.9631</v>
       </c>
       <c r="B38" s="0">
-        <v>331.1631</v>
+        <v>331.1558</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.9988</v>
+        <v>0.9767</v>
       </c>
       <c r="B39" s="0">
-        <v>335.0212</v>
+        <v>335.0155</v>
       </c>
     </row>
     <row r="40"/>
@@ -6208,298 +6228,298 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0048</v>
+        <v>-0.0149</v>
       </c>
       <c r="B3" s="0">
-        <v>135.5734</v>
+        <v>135.4908</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0013</v>
+        <v>-0.0093</v>
       </c>
       <c r="B4" s="0">
-        <v>96.5593</v>
+        <v>96.4616</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0013</v>
+        <v>-0.0048</v>
       </c>
       <c r="B5" s="0">
-        <v>19.3041</v>
+        <v>19.1768</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0033</v>
+        <v>-0.0106</v>
       </c>
       <c r="B6" s="0">
-        <v>201.9246</v>
+        <v>201.8676</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0149</v>
+        <v>-0.0001</v>
       </c>
       <c r="B7" s="0">
-        <v>218.5984</v>
+        <v>218.5478</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0265</v>
+        <v>0.0109</v>
       </c>
       <c r="B8" s="0">
-        <v>230.6932</v>
+        <v>230.6472</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0445</v>
+        <v>0.0283</v>
       </c>
       <c r="B9" s="0">
-        <v>240.505</v>
+        <v>240.4628</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.066</v>
+        <v>0.0493</v>
       </c>
       <c r="B10" s="0">
-        <v>247.6541</v>
+        <v>247.6146</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.084</v>
+        <v>0.0671</v>
       </c>
       <c r="B11" s="0">
-        <v>252.0041</v>
+        <v>251.9663</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0998</v>
+        <v>0.0827</v>
       </c>
       <c r="B12" s="0">
-        <v>255.1004</v>
+        <v>255.0639</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1275</v>
+        <v>0.1101</v>
       </c>
       <c r="B13" s="0">
-        <v>260.0168</v>
+        <v>259.9822</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1543</v>
+        <v>0.1367</v>
       </c>
       <c r="B14" s="0">
-        <v>263.6777</v>
+        <v>263.6445</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.1819</v>
+        <v>0.1638</v>
       </c>
       <c r="B15" s="0">
-        <v>272.5392</v>
+        <v>272.5093</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2061</v>
+        <v>0.188</v>
       </c>
       <c r="B16" s="0">
-        <v>273.3718</v>
+        <v>273.3423</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2295</v>
+        <v>0.2111</v>
       </c>
       <c r="B17" s="0">
-        <v>277.3036</v>
+        <v>277.2756</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2528</v>
+        <v>0.2344</v>
       </c>
       <c r="B18" s="0">
-        <v>277.7133</v>
+        <v>277.6854</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.277</v>
+        <v>0.2584</v>
       </c>
       <c r="B19" s="0">
-        <v>281.1627</v>
+        <v>281.1362</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3012</v>
+        <v>0.2825</v>
       </c>
       <c r="B20" s="0">
-        <v>283.0064</v>
+        <v>282.9806</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3254</v>
+        <v>0.3066</v>
       </c>
       <c r="B21" s="0">
-        <v>284.3742</v>
+        <v>284.349</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3505</v>
+        <v>0.3315</v>
       </c>
       <c r="B22" s="0">
-        <v>286.3434</v>
+        <v>286.3189</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.373</v>
+        <v>0.3539</v>
       </c>
       <c r="B23" s="0">
-        <v>287.6122</v>
+        <v>287.5882</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3989</v>
+        <v>0.3798</v>
       </c>
       <c r="B24" s="0">
-        <v>287.5065</v>
+        <v>287.4824</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.4473</v>
+        <v>0.428</v>
       </c>
       <c r="B25" s="0">
-        <v>290.9427</v>
+        <v>290.9199</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.4974</v>
+        <v>0.478</v>
       </c>
       <c r="B26" s="0">
-        <v>293.4273</v>
+        <v>293.4055</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5476</v>
+        <v>0.528</v>
       </c>
       <c r="B27" s="0">
-        <v>295.3833</v>
+        <v>295.3623</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.5968</v>
+        <v>0.5771</v>
       </c>
       <c r="B28" s="0">
-        <v>297.6367</v>
+        <v>297.6165</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.647</v>
+        <v>0.6271</v>
       </c>
       <c r="B29" s="0">
-        <v>299.5398</v>
+        <v>299.5204</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6971</v>
+        <v>0.6771</v>
       </c>
       <c r="B30" s="0">
-        <v>301.4429</v>
+        <v>301.4242</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.7464</v>
+        <v>0.7263</v>
       </c>
       <c r="B31" s="0">
-        <v>303.0487</v>
+        <v>303.0306</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.7974</v>
+        <v>0.7772</v>
       </c>
       <c r="B32" s="0">
-        <v>304.476</v>
+        <v>304.4585</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.8467</v>
+        <v>0.8263</v>
       </c>
       <c r="B33" s="0">
-        <v>305.5333</v>
+        <v>305.5162</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.8726</v>
+        <v>0.8522</v>
       </c>
       <c r="B34" s="0">
-        <v>306.2734</v>
+        <v>306.2566</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.8985</v>
+        <v>0.8781</v>
       </c>
       <c r="B35" s="0">
-        <v>306.8549</v>
+        <v>306.8383</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.9184</v>
+        <v>0.8979</v>
       </c>
       <c r="B36" s="0">
-        <v>307.5091</v>
+        <v>307.4928</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.9392</v>
+        <v>0.9186</v>
       </c>
       <c r="B37" s="0">
-        <v>308.3418</v>
+        <v>308.3257</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.9582</v>
+        <v>0.9376</v>
       </c>
       <c r="B38" s="0">
-        <v>309.1149</v>
+        <v>309.0992</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.9798</v>
+        <v>0.9591</v>
       </c>
       <c r="B39" s="0">
-        <v>311.137</v>
+        <v>311.122</v>
       </c>
     </row>
     <row r="40"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 57 CO2 adsorption and desorption/Data57_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 57 CO2 adsorption and desorption/Data57_all_graphs_excel.xlsx
@@ -4927,6 +4927,330 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>-0.0031</v>
+      </c>
+      <c r="B3" s="0">
+        <v>5.0083</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0142</v>
+      </c>
+      <c r="B4" s="0">
+        <v>155.2477</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0328</v>
+      </c>
+      <c r="B5" s="0">
+        <v>161.842</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.1149</v>
+      </c>
+      <c r="B6" s="0">
+        <v>176.2767</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.3346</v>
+      </c>
+      <c r="B7" s="0">
+        <v>187.7042</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.3613</v>
+      </c>
+      <c r="B8" s="0">
+        <v>188.3758</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.3863</v>
+      </c>
+      <c r="B9" s="0">
+        <v>189.5027</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.4354</v>
+      </c>
+      <c r="B10" s="0">
+        <v>191.4816</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.4847</v>
+      </c>
+      <c r="B11" s="0">
+        <v>191.7499</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.5338</v>
+      </c>
+      <c r="B12" s="0">
+        <v>193.1355</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.5847</v>
+      </c>
+      <c r="B13" s="0">
+        <v>194.5105</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.6339</v>
+      </c>
+      <c r="B14" s="0">
+        <v>195.674</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.6822</v>
+      </c>
+      <c r="B15" s="0">
+        <v>196.7543</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.7338</v>
+      </c>
+      <c r="B16" s="0">
+        <v>199.048</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.7825</v>
+      </c>
+      <c r="B17" s="0">
+        <v>200.9202</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.834</v>
+      </c>
+      <c r="B18" s="0">
+        <v>202.5666</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.8598</v>
+      </c>
+      <c r="B19" s="0">
+        <v>203.7125</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.8839</v>
+      </c>
+      <c r="B20" s="0">
+        <v>205.3519</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.9037</v>
+      </c>
+      <c r="B21" s="0">
+        <v>206.8261</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.9243</v>
+      </c>
+      <c r="B22" s="0">
+        <v>208.9217</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.944</v>
+      </c>
+      <c r="B23" s="0">
+        <v>212.5632</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.9663</v>
+      </c>
+      <c r="B24" s="0">
+        <v>215.0203</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.9809</v>
+      </c>
+      <c r="B25" s="0">
+        <v>217.3568</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.3119</v>
+      </c>
+      <c r="B26" s="0">
+        <v>187.1341</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.2865</v>
+      </c>
+      <c r="B27" s="0">
+        <v>185.5162</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.2621</v>
+      </c>
+      <c r="B28" s="0">
+        <v>184.9769</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.2133</v>
+      </c>
+      <c r="B29" s="0">
+        <v>182.8197</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.1879</v>
+      </c>
+      <c r="B30" s="0">
+        <v>181.2018</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.1654</v>
+      </c>
+      <c r="B31" s="0">
+        <v>180.6626</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.1391</v>
+      </c>
+      <c r="B32" s="0">
+        <v>177.9661</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.0788</v>
+      </c>
+      <c r="B33" s="0">
+        <v>172.5732</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.0545</v>
+      </c>
+      <c r="B34" s="0">
+        <v>168.2589</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.0228</v>
+      </c>
+      <c r="B35" s="0">
+        <v>159.0909</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.0037</v>
+      </c>
+      <c r="B36" s="0">
+        <v>149.3837</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>-0.0046</v>
+      </c>
+      <c r="B37" s="0">
+        <v>140.2157</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>-0.0079</v>
+      </c>
+      <c r="B38" s="0">
+        <v>131.0478</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>-0.0105</v>
+      </c>
+      <c r="B39" s="0">
+        <v>124.5763</v>
+      </c>
+    </row>
+    <row r="40"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4935,7 +5259,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
@@ -4948,641 +5272,317 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0085</v>
+        <v>0.0015</v>
       </c>
       <c r="B3" s="0">
-        <v>127.9126</v>
+        <v>85.208</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0076</v>
+        <v>0.0128</v>
       </c>
       <c r="B4" s="0">
-        <v>68.3712</v>
+        <v>93.8367</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0031</v>
+        <v>0.0254</v>
       </c>
       <c r="B5" s="0">
-        <v>5.0083</v>
+        <v>95.9938</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0013</v>
+        <v>0.038</v>
       </c>
       <c r="B6" s="0">
-        <v>143.4785</v>
+        <v>98.6903</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0142</v>
+        <v>0.0604</v>
       </c>
       <c r="B7" s="0">
-        <v>155.2477</v>
+        <v>100.8475</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0328</v>
+        <v>0.1424</v>
       </c>
       <c r="B8" s="0">
-        <v>161.842</v>
+        <v>104.6225</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0515</v>
+        <v>0.2157</v>
       </c>
       <c r="B9" s="0">
-        <v>167.3199</v>
+        <v>106.2404</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0703</v>
+        <v>0.2911</v>
       </c>
       <c r="B10" s="0">
-        <v>171.044</v>
+        <v>106.7797</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0892</v>
+        <v>0.3155</v>
       </c>
       <c r="B11" s="0">
-        <v>173.3892</v>
+        <v>107.319</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1149</v>
+        <v>0.3644</v>
       </c>
       <c r="B12" s="0">
-        <v>176.2767</v>
+        <v>107.8582</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1407</v>
+        <v>0.3898</v>
       </c>
       <c r="B13" s="0">
-        <v>178.4946</v>
+        <v>108.3975</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1609</v>
+        <v>0.4398</v>
       </c>
       <c r="B14" s="0">
-        <v>179.5176</v>
+        <v>107.8582</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.1791</v>
+        <v>0.4897</v>
       </c>
       <c r="B15" s="0">
-        <v>180.7755</v>
+        <v>108.3975</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.1966</v>
+        <v>0.5386</v>
       </c>
       <c r="B16" s="0">
-        <v>182.1354</v>
+        <v>108.9368</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2165</v>
+        <v>0.5885</v>
       </c>
       <c r="B17" s="0">
-        <v>183.0008</v>
+        <v>108.9368</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2362</v>
+        <v>0.6385</v>
       </c>
       <c r="B18" s="0">
-        <v>183.2777</v>
+        <v>108.3975</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2568</v>
+        <v>0.7383</v>
       </c>
       <c r="B19" s="0">
-        <v>185.1952</v>
+        <v>108.9368</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.274</v>
+        <v>0.7882</v>
       </c>
       <c r="B20" s="0">
-        <v>185.7944</v>
+        <v>109.4761</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.2889</v>
+        <v>0.8381</v>
       </c>
       <c r="B21" s="0">
-        <v>185.6711</v>
+        <v>110.0154</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3113</v>
+        <v>0.8655</v>
       </c>
       <c r="B22" s="0">
-        <v>186.8422</v>
+        <v>110.5547</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.3346</v>
+        <v>0.89</v>
       </c>
       <c r="B23" s="0">
-        <v>187.7042</v>
+        <v>110.5547</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3613</v>
+        <v>0.9095</v>
       </c>
       <c r="B24" s="0">
-        <v>188.3758</v>
+        <v>111.094</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.3863</v>
+        <v>0.9691</v>
       </c>
       <c r="B25" s="0">
-        <v>189.5027</v>
+        <v>113.7904</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.4354</v>
+        <v>0.9798</v>
       </c>
       <c r="B26" s="0">
-        <v>191.4816</v>
+        <v>114.869</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.4847</v>
+        <v>0.9505</v>
       </c>
       <c r="B27" s="0">
-        <v>191.7499</v>
+        <v>112.7119</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.5338</v>
+        <v>0.93</v>
       </c>
       <c r="B28" s="0">
-        <v>193.1355</v>
+        <v>111.6333</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.5847</v>
+        <v>0.6884</v>
       </c>
       <c r="B29" s="0">
-        <v>194.5105</v>
+        <v>108.9368</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6339</v>
+        <v>0.3409</v>
       </c>
       <c r="B30" s="0">
-        <v>195.674</v>
+        <v>107.319</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6822</v>
+        <v>0.2666</v>
       </c>
       <c r="B31" s="0">
-        <v>196.7543</v>
+        <v>106.7797</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.7338</v>
+        <v>0.1922</v>
       </c>
       <c r="B32" s="0">
-        <v>199.048</v>
+        <v>105.7011</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.7825</v>
+        <v>0.2411</v>
       </c>
       <c r="B33" s="0">
-        <v>200.9202</v>
+        <v>106.7797</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.834</v>
+        <v>0.1678</v>
       </c>
       <c r="B34" s="0">
-        <v>202.5666</v>
+        <v>105.1618</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.8598</v>
+        <v>0.1179</v>
       </c>
       <c r="B35" s="0">
-        <v>203.7125</v>
+        <v>104.0832</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.8839</v>
+        <v>0.0916</v>
       </c>
       <c r="B36" s="0">
-        <v>205.3519</v>
+        <v>103.0046</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.9037</v>
+        <v>0.0818</v>
       </c>
       <c r="B37" s="0">
-        <v>206.8261</v>
+        <v>102.4653</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.9243</v>
+        <v>-0.0066</v>
       </c>
       <c r="B38" s="0">
-        <v>208.9217</v>
+        <v>56.0863</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.944</v>
+        <v>-0.0056</v>
       </c>
       <c r="B39" s="0">
-        <v>212.5632</v>
+        <v>73.8829</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.9663</v>
+        <v>-0.003</v>
       </c>
       <c r="B40" s="0">
-        <v>215.0203</v>
+        <v>10.7858</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.9809</v>
+        <v>-0.003</v>
       </c>
       <c r="B41" s="0">
-        <v>217.3568</v>
+        <v>10.7858</v>
       </c>
     </row>
     <row r="42"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>-0.0075</v>
-      </c>
-      <c r="B3" s="0">
-        <v>54.4684</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>-0.0065</v>
-      </c>
-      <c r="B4" s="0">
-        <v>72.265</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.0015</v>
-      </c>
-      <c r="B5" s="0">
-        <v>85.208</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.0128</v>
-      </c>
-      <c r="B6" s="0">
-        <v>93.8367</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.0254</v>
-      </c>
-      <c r="B7" s="0">
-        <v>95.9938</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.038</v>
-      </c>
-      <c r="B8" s="0">
-        <v>98.6903</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.0604</v>
-      </c>
-      <c r="B9" s="0">
-        <v>100.8475</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.0809</v>
-      </c>
-      <c r="B10" s="0">
-        <v>101.926</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.0897</v>
-      </c>
-      <c r="B11" s="0">
-        <v>101.926</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.1189</v>
-      </c>
-      <c r="B12" s="0">
-        <v>103.5439</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.1424</v>
-      </c>
-      <c r="B13" s="0">
-        <v>104.6225</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.1678</v>
-      </c>
-      <c r="B14" s="0">
-        <v>105.1618</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.1923</v>
-      </c>
-      <c r="B15" s="0">
-        <v>105.1618</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.2157</v>
-      </c>
-      <c r="B16" s="0">
-        <v>106.2404</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.2412</v>
-      </c>
-      <c r="B17" s="0">
-        <v>105.7011</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.2656</v>
-      </c>
-      <c r="B18" s="0">
-        <v>106.2404</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.2911</v>
-      </c>
-      <c r="B19" s="0">
-        <v>106.7797</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.3155</v>
-      </c>
-      <c r="B20" s="0">
-        <v>107.319</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.3419</v>
-      </c>
-      <c r="B21" s="0">
-        <v>107.319</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.3644</v>
-      </c>
-      <c r="B22" s="0">
-        <v>107.8582</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.3898</v>
-      </c>
-      <c r="B23" s="0">
-        <v>108.3975</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.4398</v>
-      </c>
-      <c r="B24" s="0">
-        <v>107.8582</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.4897</v>
-      </c>
-      <c r="B25" s="0">
-        <v>108.3975</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.5386</v>
-      </c>
-      <c r="B26" s="0">
-        <v>108.9368</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.5885</v>
-      </c>
-      <c r="B27" s="0">
-        <v>108.9368</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.6385</v>
-      </c>
-      <c r="B28" s="0">
-        <v>108.3975</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.6893</v>
-      </c>
-      <c r="B29" s="0">
-        <v>109.4761</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.7383</v>
-      </c>
-      <c r="B30" s="0">
-        <v>108.9368</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.7882</v>
-      </c>
-      <c r="B31" s="0">
-        <v>109.4761</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.8381</v>
-      </c>
-      <c r="B32" s="0">
-        <v>110.0154</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.8655</v>
-      </c>
-      <c r="B33" s="0">
-        <v>110.5547</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.89</v>
-      </c>
-      <c r="B34" s="0">
-        <v>110.5547</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.9095</v>
-      </c>
-      <c r="B35" s="0">
-        <v>111.094</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.9281</v>
-      </c>
-      <c r="B36" s="0">
-        <v>111.6333</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.9476</v>
-      </c>
-      <c r="B37" s="0">
-        <v>111.6333</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.9701</v>
-      </c>
-      <c r="B38" s="0">
-        <v>112.7119</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.9779</v>
-      </c>
-      <c r="B39" s="0">
-        <v>113.7904</v>
-      </c>
-    </row>
-    <row r="40"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -5591,7 +5591,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5620,261 +5620,237 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0152</v>
+        <v>0.1386</v>
       </c>
       <c r="B4" s="0">
-        <v>150.1399</v>
+        <v>184.3918</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0355</v>
+        <v>0.1644</v>
       </c>
       <c r="B5" s="0">
-        <v>159.765</v>
+        <v>187.7412</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.063</v>
+        <v>0.1893</v>
       </c>
       <c r="B6" s="0">
-        <v>172.1401</v>
+        <v>189.3939</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0807</v>
+        <v>0.2142</v>
       </c>
       <c r="B7" s="0">
-        <v>176.8998</v>
+        <v>191.972</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1039</v>
+        <v>0.2624</v>
       </c>
       <c r="B8" s="0">
-        <v>179.9936</v>
+        <v>195.3038</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1146</v>
+        <v>0.3115</v>
       </c>
       <c r="B9" s="0">
-        <v>181.8498</v>
+        <v>197.7233</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1386</v>
+        <v>0.3357</v>
       </c>
       <c r="B10" s="0">
-        <v>184.3918</v>
+        <v>198.8537</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1644</v>
+        <v>0.3598</v>
       </c>
       <c r="B11" s="0">
-        <v>187.7412</v>
+        <v>199.5676</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1893</v>
+        <v>0.3849</v>
       </c>
       <c r="B12" s="0">
-        <v>189.3939</v>
+        <v>199.5875</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2142</v>
+        <v>0.4331</v>
       </c>
       <c r="B13" s="0">
-        <v>191.972</v>
+        <v>201.3855</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2384</v>
+        <v>0.0583</v>
       </c>
       <c r="B14" s="0">
-        <v>193.0297</v>
+        <v>170.9553</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2624</v>
+        <v>0.0766</v>
       </c>
       <c r="B15" s="0">
-        <v>195.3038</v>
+        <v>175.8089</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2857</v>
+        <v>0.1135</v>
       </c>
       <c r="B16" s="0">
-        <v>196.6047</v>
+        <v>181.2018</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3115</v>
+        <v>0.2381</v>
       </c>
       <c r="B17" s="0">
-        <v>197.7233</v>
+        <v>194.1448</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3357</v>
+        <v>0.2868</v>
       </c>
       <c r="B18" s="0">
-        <v>198.8537</v>
+        <v>197.3806</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3598</v>
+        <v>0.4843</v>
       </c>
       <c r="B19" s="0">
-        <v>199.5676</v>
+        <v>202.7735</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3849</v>
+        <v>0.5331</v>
       </c>
       <c r="B20" s="0">
-        <v>199.5875</v>
+        <v>204.3914</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4331</v>
+        <v>0.583</v>
       </c>
       <c r="B21" s="0">
-        <v>201.3855</v>
+        <v>206.0092</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4814</v>
+        <v>0.6328</v>
       </c>
       <c r="B22" s="0">
-        <v>203.7578</v>
+        <v>207.0878</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.5297</v>
+        <v>0.6836</v>
       </c>
       <c r="B23" s="0">
-        <v>204.3154</v>
+        <v>208.7057</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5798</v>
+        <v>0.7325</v>
       </c>
       <c r="B24" s="0">
-        <v>205.9337</v>
+        <v>210.8629</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.6306</v>
+        <v>0.7833</v>
       </c>
       <c r="B25" s="0">
-        <v>207.7582</v>
+        <v>212.4807</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.6807</v>
+        <v>0.8331</v>
       </c>
       <c r="B26" s="0">
-        <v>209.2654</v>
+        <v>213.5593</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.7307</v>
+        <v>0.8586</v>
       </c>
       <c r="B27" s="0">
-        <v>210.6933</v>
+        <v>214.0986</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.7807</v>
+        <v>0.884</v>
       </c>
       <c r="B28" s="0">
-        <v>212.3592</v>
+        <v>214.6379</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.8291</v>
+        <v>0.9035</v>
       </c>
       <c r="B29" s="0">
-        <v>212.9938</v>
+        <v>215.1772</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.861</v>
+        <v>0.9241</v>
       </c>
       <c r="B30" s="0">
-        <v>213.4539</v>
+        <v>215.7165</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.88</v>
+        <v>0.9427</v>
       </c>
       <c r="B31" s="0">
-        <v>213.7871</v>
+        <v>215.7165</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.9123</v>
+        <v>0.9621</v>
       </c>
       <c r="B32" s="0">
-        <v>213.7871</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.932</v>
-      </c>
-      <c r="B33" s="0">
-        <v>214.365</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.9492</v>
-      </c>
-      <c r="B34" s="0">
-        <v>215.8609</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.9677</v>
-      </c>
-      <c r="B35" s="0">
-        <v>220.8472</v>
-      </c>
-    </row>
-    <row r="36"/>
+        <v>217.8737</v>
+      </c>
+    </row>
+    <row r="33"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -5883,7 +5859,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5904,301 +5880,309 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0113</v>
+        <v>-0.0131</v>
       </c>
       <c r="B3" s="0">
-        <v>103.3291</v>
+        <v>162.8588</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0131</v>
+        <v>-0.0091</v>
       </c>
       <c r="B4" s="0">
-        <v>162.8588</v>
+        <v>83.2933</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0168</v>
+        <v>-0.0061</v>
       </c>
       <c r="B5" s="0">
-        <v>122.1638</v>
+        <v>41.3686</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0091</v>
+        <v>0.0962</v>
       </c>
       <c r="B6" s="0">
-        <v>83.2933</v>
+        <v>262.0976</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0061</v>
+        <v>0.1191</v>
       </c>
       <c r="B7" s="0">
-        <v>41.3686</v>
+        <v>268.5628</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0459</v>
+        <v>0.2106</v>
       </c>
       <c r="B8" s="0">
-        <v>249.9605</v>
+        <v>284.8381</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0639</v>
+        <v>0.3025</v>
       </c>
       <c r="B9" s="0">
-        <v>256.1216</v>
+        <v>295.4151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0825</v>
+        <v>0.3979</v>
       </c>
       <c r="B10" s="0">
-        <v>259.9557</v>
+        <v>303.3479</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0962</v>
+        <v>0.5968</v>
       </c>
       <c r="B11" s="0">
-        <v>262.0976</v>
+        <v>316.3258</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1191</v>
+        <v>0.6372</v>
       </c>
       <c r="B12" s="0">
-        <v>268.5628</v>
+        <v>318.949</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1609</v>
+        <v>0.6769</v>
       </c>
       <c r="B13" s="0">
-        <v>277.54</v>
+        <v>320.9586</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2106</v>
+        <v>0.7165</v>
       </c>
       <c r="B14" s="0">
-        <v>284.8381</v>
+        <v>322.5981</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2369</v>
+        <v>0.757</v>
       </c>
       <c r="B15" s="0">
-        <v>287.2047</v>
+        <v>324.1159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2578</v>
+        <v>0.7958</v>
       </c>
       <c r="B16" s="0">
-        <v>290.5365</v>
+        <v>325.6125</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2828</v>
+        <v>0.8355</v>
       </c>
       <c r="B17" s="0">
-        <v>292.242</v>
+        <v>326.4587</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3025</v>
+        <v>0.8658</v>
       </c>
       <c r="B18" s="0">
-        <v>295.4151</v>
+        <v>327.3498</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3214</v>
+        <v>0.8775</v>
       </c>
       <c r="B19" s="0">
-        <v>296.4266</v>
+        <v>328.4284</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3566</v>
+        <v>0.8892</v>
       </c>
       <c r="B20" s="0">
-        <v>300.1068</v>
+        <v>327.8891</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3979</v>
+        <v>0.899</v>
       </c>
       <c r="B21" s="0">
-        <v>303.3479</v>
+        <v>328.4284</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4366</v>
+        <v>0.9088</v>
       </c>
       <c r="B22" s="0">
-        <v>306.8859</v>
+        <v>328.4284</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4735</v>
+        <v>0.9166</v>
       </c>
       <c r="B23" s="0">
-        <v>310.4557</v>
+        <v>328.9676</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5192</v>
+        <v>0.9264</v>
       </c>
       <c r="B24" s="0">
-        <v>313.1052</v>
+        <v>328.9676</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.5588</v>
+        <v>0.939</v>
       </c>
       <c r="B25" s="0">
-        <v>315.3462</v>
+        <v>330.0462</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5968</v>
+        <v>0.9517</v>
       </c>
       <c r="B26" s="0">
-        <v>316.3258</v>
+        <v>330.5855</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.6372</v>
+        <v>0.9624</v>
       </c>
       <c r="B27" s="0">
-        <v>318.949</v>
+        <v>332.7427</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.6769</v>
+        <v>0.973</v>
       </c>
       <c r="B28" s="0">
-        <v>320.9586</v>
+        <v>334.8998</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.7165</v>
+        <v>0.5572</v>
       </c>
       <c r="B29" s="0">
-        <v>322.5981</v>
+        <v>314.4068</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.757</v>
+        <v>0.5182</v>
       </c>
       <c r="B30" s="0">
-        <v>324.1159</v>
+        <v>311.7103</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.7958</v>
+        <v>0.4762</v>
       </c>
       <c r="B31" s="0">
-        <v>325.6125</v>
+        <v>310.0924</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.8355</v>
+        <v>0.4372</v>
       </c>
       <c r="B32" s="0">
-        <v>326.4587</v>
+        <v>307.396</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.8683</v>
+        <v>0.3582</v>
       </c>
       <c r="B33" s="0">
-        <v>327.3481</v>
+        <v>301.4638</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.8873</v>
+        <v>0.3222</v>
       </c>
       <c r="B34" s="0">
-        <v>327.7808</v>
+        <v>297.6888</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.9063</v>
+        <v>0.2813</v>
       </c>
       <c r="B35" s="0">
-        <v>328.3</v>
+        <v>293.3744</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.9252</v>
+        <v>0.259</v>
       </c>
       <c r="B36" s="0">
-        <v>328.9491</v>
+        <v>290.678</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.9442</v>
+        <v>0.1618</v>
       </c>
       <c r="B37" s="0">
-        <v>329.7712</v>
+        <v>277.1957</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.9631</v>
+        <v>0.0536</v>
       </c>
       <c r="B38" s="0">
-        <v>331.1558</v>
+        <v>252.3883</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.9767</v>
+        <v>-0.0089</v>
       </c>
       <c r="B39" s="0">
-        <v>335.0155</v>
-      </c>
-    </row>
-    <row r="40"/>
+        <v>199.5378</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>-0.0093</v>
+      </c>
+      <c r="B40" s="0">
+        <v>103.0046</v>
+      </c>
+    </row>
+    <row r="41"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -6207,7 +6191,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6252,277 +6236,317 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0106</v>
+        <v>0.1101</v>
       </c>
       <c r="B6" s="0">
-        <v>201.8676</v>
+        <v>259.9822</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0001</v>
+        <v>0.1367</v>
       </c>
       <c r="B7" s="0">
-        <v>218.5478</v>
+        <v>263.6445</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0109</v>
+        <v>0.1638</v>
       </c>
       <c r="B8" s="0">
-        <v>230.6472</v>
+        <v>272.5093</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0283</v>
+        <v>0.2111</v>
       </c>
       <c r="B9" s="0">
-        <v>240.4628</v>
+        <v>277.2756</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0493</v>
+        <v>0.2584</v>
       </c>
       <c r="B10" s="0">
-        <v>247.6146</v>
+        <v>281.1362</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0671</v>
+        <v>0.2825</v>
       </c>
       <c r="B11" s="0">
-        <v>251.9663</v>
+        <v>282.9806</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0827</v>
+        <v>0.3066</v>
       </c>
       <c r="B12" s="0">
-        <v>255.0639</v>
+        <v>284.349</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1101</v>
+        <v>0.3315</v>
       </c>
       <c r="B13" s="0">
-        <v>259.9822</v>
+        <v>286.3189</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1367</v>
+        <v>0.3539</v>
       </c>
       <c r="B14" s="0">
-        <v>263.6445</v>
+        <v>287.5882</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.1638</v>
+        <v>0.428</v>
       </c>
       <c r="B15" s="0">
-        <v>272.5093</v>
+        <v>290.9199</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.188</v>
+        <v>0.478</v>
       </c>
       <c r="B16" s="0">
-        <v>273.3423</v>
+        <v>293.4055</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2111</v>
+        <v>0.528</v>
       </c>
       <c r="B17" s="0">
-        <v>277.2756</v>
+        <v>295.3623</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2344</v>
+        <v>0.5771</v>
       </c>
       <c r="B18" s="0">
-        <v>277.6854</v>
+        <v>297.6165</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2584</v>
+        <v>0.6271</v>
       </c>
       <c r="B19" s="0">
-        <v>281.1362</v>
+        <v>299.5204</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2825</v>
+        <v>0.6771</v>
       </c>
       <c r="B20" s="0">
-        <v>282.9806</v>
+        <v>301.4242</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3066</v>
+        <v>0.7263</v>
       </c>
       <c r="B21" s="0">
-        <v>284.349</v>
+        <v>303.0306</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3315</v>
+        <v>0.7772</v>
       </c>
       <c r="B22" s="0">
-        <v>286.3189</v>
+        <v>304.4585</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.3539</v>
+        <v>0.8263</v>
       </c>
       <c r="B23" s="0">
-        <v>287.5882</v>
+        <v>305.5162</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3798</v>
+        <v>0.8522</v>
       </c>
       <c r="B24" s="0">
-        <v>287.4824</v>
+        <v>306.2566</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.428</v>
+        <v>0.8781</v>
       </c>
       <c r="B25" s="0">
-        <v>290.9199</v>
+        <v>306.8383</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.478</v>
+        <v>0.8979</v>
       </c>
       <c r="B26" s="0">
-        <v>293.4055</v>
+        <v>307.4928</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.528</v>
+        <v>0.9186</v>
       </c>
       <c r="B27" s="0">
-        <v>295.3623</v>
+        <v>308.3257</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.5771</v>
+        <v>0.9376</v>
       </c>
       <c r="B28" s="0">
-        <v>297.6165</v>
+        <v>309.0992</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.6271</v>
+        <v>0.9591</v>
       </c>
       <c r="B29" s="0">
-        <v>299.5204</v>
+        <v>311.122</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6771</v>
+        <v>0.0326</v>
       </c>
       <c r="B30" s="0">
-        <v>301.4242</v>
+        <v>242.681</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.7263</v>
+        <v>0.0212</v>
       </c>
       <c r="B31" s="0">
-        <v>303.0306</v>
+        <v>237.2881</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.7772</v>
+        <v>0.0117</v>
       </c>
       <c r="B32" s="0">
-        <v>304.4585</v>
+        <v>232.4345</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.8263</v>
+        <v>0.0042</v>
       </c>
       <c r="B33" s="0">
-        <v>305.5162</v>
+        <v>226.5023</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.8522</v>
+        <v>-0.0076</v>
       </c>
       <c r="B34" s="0">
-        <v>306.2566</v>
+        <v>210.3236</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.8781</v>
+        <v>-0.0022</v>
       </c>
       <c r="B35" s="0">
-        <v>306.8383</v>
+        <v>219.4915</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.8979</v>
+        <v>-0.0102</v>
       </c>
       <c r="B36" s="0">
-        <v>307.4928</v>
+        <v>204.3914</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.9186</v>
+        <v>-0.0107</v>
       </c>
       <c r="B37" s="0">
-        <v>308.3257</v>
+        <v>196.302</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.9376</v>
+        <v>0.0538</v>
       </c>
       <c r="B38" s="0">
-        <v>309.0992</v>
+        <v>248.6133</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.9591</v>
+        <v>0.0731</v>
       </c>
       <c r="B39" s="0">
-        <v>311.122</v>
-      </c>
-    </row>
-    <row r="40"/>
+        <v>254.0062</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.0828</v>
+      </c>
+      <c r="B40" s="0">
+        <v>255.624</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.1874</v>
+      </c>
+      <c r="B41" s="0">
+        <v>275.0385</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.2342</v>
+      </c>
+      <c r="B42" s="0">
+        <v>279.3529</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.3795</v>
+      </c>
+      <c r="B43" s="0">
+        <v>288.5208</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.9684</v>
+      </c>
+      <c r="B44" s="0">
+        <v>312.7889</v>
+      </c>
+    </row>
+    <row r="45"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 57 CO2 adsorption and desorption/Data57_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 57 CO2 adsorption and desorption/Data57_all_graphs_excel.xlsx
@@ -5,11 +5,11 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2 AC-1000  0-1-0-350 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 2 AC-600  0-1-0-350 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 2 AC-700  0-1-0-350 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 2 AC-800  0-1-0-350 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 2 AC-900  0-1-0-350 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2 AC-1000  0&amp;1&amp;0&amp;350 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 AC-600  0&amp;1&amp;0&amp;350 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 AC-700  0&amp;1&amp;0&amp;350 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2 AC-800  0&amp;1&amp;0&amp;350 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2 AC-900  0&amp;1&amp;0&amp;350 " sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -172,12 +172,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 AC-1000  0-1-0-350 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 AC-1000  0&amp;1&amp;0&amp;350 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 AC-1000  0-1-0-350 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 AC-1000  0&amp;1&amp;0&amp;350 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -486,12 +486,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 AC-600  0-1-0-350 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 AC-600  0&amp;1&amp;0&amp;350 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 AC-600  0-1-0-350 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 AC-600  0&amp;1&amp;0&amp;350 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -800,12 +800,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 AC-700  0-1-0-350 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 AC-700  0&amp;1&amp;0&amp;350 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 AC-700  0-1-0-350 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 AC-700  0&amp;1&amp;0&amp;350 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1114,12 +1114,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 AC-800  0-1-0-350 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 AC-800  0&amp;1&amp;0&amp;350 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 AC-800  0-1-0-350 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 AC-800  0&amp;1&amp;0&amp;350 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1428,12 +1428,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 AC-900  0-1-0-350 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 AC-900  0&amp;1&amp;0&amp;350 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 AC-900  0-1-0-350 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 AC-900  0&amp;1&amp;0&amp;350 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
